--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/130.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/130.xlsx
@@ -479,13 +479,13 @@
         <v>-11.83717702021826</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.47287519169567</v>
+        <v>-21.48191985439946</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03736681418776644</v>
+        <v>-0.04097001224868276</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.834895109864737</v>
+        <v>-8.826613132232183</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.56515417569634</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.62271836315975</v>
+        <v>-21.63344484422576</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1616551467584783</v>
+        <v>-0.1646521079678971</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.330809167844604</v>
+        <v>-8.320649811575155</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.17349565839859</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.86437708358449</v>
+        <v>-21.87500089550629</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.303768798365962</v>
+        <v>-0.3046585976157405</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.21874335244118</v>
+        <v>-8.203269645707394</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.6884699835671</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.9603971784507</v>
+        <v>-21.9670462277897</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3235448311426329</v>
+        <v>-0.3203571986654044</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.761454984151157</v>
+        <v>-7.746660849371873</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.10972830219297</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.94355943880104</v>
+        <v>-21.94762709251432</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4630721981175187</v>
+        <v>-0.4609308131098099</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.03288051382289</v>
+        <v>-7.012586246318326</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.460214898853867</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19536284847463</v>
+        <v>-22.19975806564799</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5584176100360939</v>
+        <v>-0.5541250620069427</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.45323008166772</v>
+        <v>-6.431537558199219</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.763956394182021</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.57914499852059</v>
+        <v>-22.58382377809222</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7336689501875272</v>
+        <v>-0.7277434738648263</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.045164234513797</v>
+        <v>-6.02558865101867</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.038662554789493</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83187731949889</v>
+        <v>-22.83415559669887</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8536794017496884</v>
+        <v>-0.8488246179308419</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.766740182449858</v>
+        <v>-5.74735527022254</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.305220579466046</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31143511406771</v>
+        <v>-23.31105377153209</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9436175720734558</v>
+        <v>-0.939872592813399</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.482762218585103</v>
+        <v>-5.471644616969739</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.596779961443601</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75857390410201</v>
+        <v>-23.76103796356294</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.186082978631236</v>
+        <v>-1.1814335331008</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.150945322527586</v>
+        <v>-5.139827720912221</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.931629524683732</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23613209486227</v>
+        <v>-24.23688500191977</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.123034346075501</v>
+        <v>-1.116766639272116</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.97747358087571</v>
+        <v>-4.967754235224283</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.326252000264339</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85207362499055</v>
+        <v>-24.85272386290385</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.049982805470058</v>
+        <v>-1.047244961624585</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.876544923115118</v>
+        <v>-4.865632659788163</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.807945786044382</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43793798487357</v>
+        <v>-25.43454990311479</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9535520340270269</v>
+        <v>-0.9478270069858695</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.753019275615644</v>
+        <v>-4.741559443519596</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.382876936859894</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07978636238963</v>
+        <v>-26.07864722378964</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9178231718436125</v>
+        <v>-0.9165471410513477</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.73337524602438</v>
+        <v>-4.71618060887344</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.049698481239467</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.839931594561</v>
+        <v>-26.83504014319065</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8359127507953195</v>
+        <v>-0.8349887284974725</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.645578460708322</v>
+        <v>-4.625782871904183</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.8117325113528</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.6381524122119</v>
+        <v>-27.63755839787757</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7348374228287199</v>
+        <v>-0.7345489714235719</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.669999050008562</v>
+        <v>-4.652012393745181</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.654575329274152</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.48180432617361</v>
+        <v>-28.47782711908738</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5841875652316026</v>
+        <v>-0.5836253294419074</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.881693047345979</v>
+        <v>-4.860254752234557</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.557491554221371</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17297544946654</v>
+        <v>-29.17156985999231</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3064381961152975</v>
+        <v>-0.3058759603256023</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.112102162969946</v>
+        <v>-5.090365638439643</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.507391877575433</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59377715950878</v>
+        <v>-29.59321981272595</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1239266807664956</v>
+        <v>-0.1244986945699246</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.428093343799261</v>
+        <v>-5.40281717829731</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.485061387170567</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.1960514709406</v>
+        <v>-30.19844708430539</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3186311098335124</v>
+        <v>0.3204009303193356</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.70678629124088</v>
+        <v>-5.679520299944095</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.471211548587442</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.7316837297695</v>
+        <v>-30.73318221037421</v>
       </c>
       <c r="F22" t="n">
-        <v>0.337742237676283</v>
+        <v>0.3396147273063114</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.983215628503118</v>
+        <v>-5.957255002039799</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.458863934244565</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.0887572353015</v>
+        <v>-31.09138507649247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.618429899919604</v>
+        <v>0.6183516758097333</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.284041110031262</v>
+        <v>-6.258593829288969</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.443482550303632</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.29419819285614</v>
+        <v>-31.30183971058912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8255135637815204</v>
+        <v>0.8288478664647564</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.50322995489566</v>
+        <v>-6.476873318876121</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.421707751693147</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58844551564485</v>
+        <v>-31.59217093887743</v>
       </c>
       <c r="F25" t="n">
-        <v>1.047982932253618</v>
+        <v>1.051297678909387</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.528921685981298</v>
+        <v>-6.504061086063035</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.400279317179175</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49126917065461</v>
+        <v>-31.49156006656319</v>
       </c>
       <c r="F26" t="n">
-        <v>1.080837058399287</v>
+        <v>1.083892687691109</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.656915885757131</v>
+        <v>-6.629063213636317</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.387625431719842</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57744280569085</v>
+        <v>-31.57587832349344</v>
       </c>
       <c r="F27" t="n">
-        <v>1.332845806361285</v>
+        <v>1.33465962790891</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.935418161930941</v>
+        <v>-6.911867815853012</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.388000512650333</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40354816494499</v>
+        <v>-31.40245547191023</v>
       </c>
       <c r="F28" t="n">
-        <v>1.477980864212522</v>
+        <v>1.480611149906922</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.076074889492084</v>
+        <v>-7.052050309748064</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.412288607678132</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.2101292752761</v>
+        <v>-31.21041528217781</v>
       </c>
       <c r="F29" t="n">
-        <v>1.506713557569381</v>
+        <v>1.508776718467219</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.353804702580922</v>
+        <v>-7.328347643824896</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.47143172074914</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07332264062265</v>
+        <v>-31.06891275642869</v>
       </c>
       <c r="F30" t="n">
-        <v>1.615572184468109</v>
+        <v>1.618050910949635</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.373551401316391</v>
+        <v>-7.34910147797495</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.566675265571214</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80696954651312</v>
+        <v>-30.8005600585106</v>
       </c>
       <c r="F31" t="n">
-        <v>1.556146306000758</v>
+        <v>1.5582974690222</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.36566054423319</v>
+        <v>-7.341112840754411</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.702733837629589</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40528874232739</v>
+        <v>-30.40226244707677</v>
       </c>
       <c r="F32" t="n">
-        <v>1.509089614906701</v>
+        <v>1.511656343511832</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.38410676714206</v>
+        <v>-7.363054703573125</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.883077930216205</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90222215823901</v>
+        <v>-29.89584689328456</v>
       </c>
       <c r="F33" t="n">
-        <v>1.481276054840822</v>
+        <v>1.483705891253679</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.64571752459068</v>
+        <v>-7.624601903932474</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.098418949169758</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.30228968109645</v>
+        <v>-29.29464082985316</v>
       </c>
       <c r="F34" t="n">
-        <v>1.472285171212566</v>
+        <v>1.475458136669194</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.631114061079204</v>
+        <v>-7.609333535487099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.344065939221564</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85311217519864</v>
+        <v>-28.84807160911884</v>
       </c>
       <c r="F35" t="n">
-        <v>1.499252933090469</v>
+        <v>1.501389429091311</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.647018000417279</v>
+        <v>-7.626992628290395</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.616011009729877</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22946312574466</v>
+        <v>-28.2243003344932</v>
       </c>
       <c r="F36" t="n">
-        <v>1.406552473886894</v>
+        <v>1.407799170637958</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.528840926430211</v>
+        <v>-7.514437912200279</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.900018836737879</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56743537238541</v>
+        <v>-27.56115055405799</v>
       </c>
       <c r="F37" t="n">
-        <v>1.514203516089495</v>
+        <v>1.517435149628525</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.455173370959536</v>
+        <v>-7.442765071531306</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.185469289038108</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.03060041786725</v>
+        <v>-27.02752278804453</v>
       </c>
       <c r="F38" t="n">
-        <v>1.379858496393539</v>
+        <v>1.383011905822699</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.42833761226704</v>
+        <v>-7.414227938449123</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.46690440639087</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.28136011551253</v>
+        <v>-26.28231836085845</v>
       </c>
       <c r="F39" t="n">
-        <v>1.432395764185407</v>
+        <v>1.434708264433457</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.395160811668156</v>
+        <v>-7.385192126666515</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.733262995161454</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61772143439063</v>
+        <v>-25.61733520284814</v>
       </c>
       <c r="F40" t="n">
-        <v>1.457280809138004</v>
+        <v>1.463211174467572</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.10073992913567</v>
+        <v>-7.093396640821564</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.976800724717959</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.06778638597257</v>
+        <v>-25.06949753837599</v>
       </c>
       <c r="F41" t="n">
-        <v>1.488169554523173</v>
+        <v>1.490721616107702</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.123532479149228</v>
+        <v>-7.117196326249706</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.198658303432379</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35887550126303</v>
+        <v>-24.35865549595402</v>
       </c>
       <c r="F42" t="n">
-        <v>1.497786231030394</v>
+        <v>1.500230734463852</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.856827376545283</v>
+        <v>-6.845792888046656</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.396818853382124</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.65450650393286</v>
+        <v>-23.65326469618867</v>
       </c>
       <c r="F43" t="n">
-        <v>1.449781072604156</v>
+        <v>1.453149598335461</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.846765800413173</v>
+        <v>-6.840209642204639</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.568716786891622</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96916063232186</v>
+        <v>-22.96727347567123</v>
       </c>
       <c r="F44" t="n">
-        <v>1.56249712592088</v>
+        <v>1.565870540659052</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.755918274812159</v>
+        <v>-6.744057544153023</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.720435831500629</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.15207558167496</v>
+        <v>-22.15287737880114</v>
       </c>
       <c r="F45" t="n">
-        <v>1.614120149428635</v>
+        <v>1.616310424505013</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.63721807709033</v>
+        <v>-6.630661918881798</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.854886749660974</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.64055834921712</v>
+        <v>-21.64452333378619</v>
       </c>
       <c r="F46" t="n">
-        <v>1.614374377785715</v>
+        <v>1.616794436184838</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.508730087620939</v>
+        <v>-6.500438331974651</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.96902174377253</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.97408404411241</v>
+        <v>-20.97685122199908</v>
       </c>
       <c r="F47" t="n">
-        <v>1.68634544787357</v>
+        <v>1.690378878538775</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.481615655537029</v>
+        <v>-6.472116315194613</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.06772069006873</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.33482684023581</v>
+        <v>-20.3378140234315</v>
       </c>
       <c r="F48" t="n">
-        <v>1.72388813160461</v>
+        <v>1.727892228228613</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.457375959490864</v>
+        <v>-6.443408066872088</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.154678077204558</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.58920929196948</v>
+        <v>-19.59380495842438</v>
       </c>
       <c r="F49" t="n">
-        <v>1.875359342355369</v>
+        <v>1.878537196818863</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.206873025643876</v>
+        <v>-6.190181956200228</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.224238329901414</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.20178972081454</v>
+        <v>-19.20641472131064</v>
       </c>
       <c r="F50" t="n">
-        <v>1.892901098993859</v>
+        <v>1.89665585626765</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.198322152633642</v>
+        <v>-6.180438165514468</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.278551456960168</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.61454177198818</v>
+        <v>-18.6182476391933</v>
       </c>
       <c r="F51" t="n">
-        <v>1.855094408892006</v>
+        <v>1.859694964353773</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.238856908567234</v>
+        <v>-6.220083122198281</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.322729905095538</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.09298740843256</v>
+        <v>-18.09461055871238</v>
       </c>
       <c r="F52" t="n">
-        <v>1.872831725805174</v>
+        <v>1.878097186200841</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.263517059203953</v>
+        <v>-6.2454081777689</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.350099870149471</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.69829299505965</v>
+        <v>-17.7011677310974</v>
       </c>
       <c r="F53" t="n">
-        <v>1.967825129229331</v>
+        <v>1.97514886151597</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.168983222425285</v>
+        <v>-6.14530087316195</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.36158033572847</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.07788780166188</v>
+        <v>-17.07948161790049</v>
       </c>
       <c r="F54" t="n">
-        <v>2.02668388290012</v>
+        <v>2.032878254600501</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.153812634117249</v>
+        <v>-6.133322806338008</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.364494224437558</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.82885645888183</v>
+        <v>-16.82895912802604</v>
       </c>
       <c r="F55" t="n">
-        <v>1.983743735588006</v>
+        <v>1.985968233712452</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.388103621193546</v>
+        <v>-6.368180918210868</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.354137530333283</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.28047122564058</v>
+        <v>-16.28594202432466</v>
       </c>
       <c r="F56" t="n">
-        <v>2.011351957365475</v>
+        <v>2.016729864919081</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.258310266890688</v>
+        <v>-6.237683546919174</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.331322023594529</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.18325332409198</v>
+        <v>-16.1869738583177</v>
       </c>
       <c r="F57" t="n">
-        <v>2.054888563515353</v>
+        <v>2.058731322912748</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.416044295437965</v>
+        <v>-6.392508616380637</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.305543010327593</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9276218220416</v>
+        <v>-15.92826717094803</v>
       </c>
       <c r="F58" t="n">
-        <v>1.922944046191052</v>
+        <v>1.926992143876858</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.578163763144866</v>
+        <v>-6.557243702761336</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.276431059446087</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65744552456214</v>
+        <v>-15.65409655485831</v>
       </c>
       <c r="F59" t="n">
-        <v>1.987180707415448</v>
+        <v>1.99010922252873</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.369931182669224</v>
+        <v>-6.349485355951785</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.244748528325143</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.40074821901477</v>
+        <v>-15.39564898485258</v>
       </c>
       <c r="F60" t="n">
-        <v>2.059151777503302</v>
+        <v>2.060168690931621</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.410852170145302</v>
+        <v>-6.387702722630459</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.220848905136021</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.25001524830092</v>
+        <v>-15.24783475123828</v>
       </c>
       <c r="F61" t="n">
-        <v>1.994866226210238</v>
+        <v>1.994572885798223</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.257034236098423</v>
+        <v>-6.230623821003349</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.207365598232789</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.193733001249</v>
+        <v>-15.19310720837003</v>
       </c>
       <c r="F62" t="n">
-        <v>2.013600900524256</v>
+        <v>2.016187185156854</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.343686993807625</v>
+        <v>-6.316269443297966</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.203302011658869</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.10185389519906</v>
+        <v>-15.0961142011373</v>
       </c>
       <c r="F63" t="n">
-        <v>1.980223650643828</v>
+        <v>1.982037472191453</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.404868025740198</v>
+        <v>-6.378442943624522</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.216505509554927</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.15046040146993</v>
+        <v>-15.14943371002788</v>
       </c>
       <c r="F64" t="n">
-        <v>1.829441789861304</v>
+        <v>1.831661398978883</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.392489060353169</v>
+        <v>-6.364514163060682</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.24877411355897</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.15846370571107</v>
+        <v>-15.15169243120039</v>
       </c>
       <c r="F65" t="n">
-        <v>1.8313338355188</v>
+        <v>1.834951700600317</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.490601650158419</v>
+        <v>-6.460690706146632</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.293237409004703</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.15702144868533</v>
+        <v>-15.1525186733609</v>
       </c>
       <c r="F66" t="n">
-        <v>1.888139206305484</v>
+        <v>1.89133172778958</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.414914934851708</v>
+        <v>-6.382554598399598</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.349576969001507</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.01901945185292</v>
+        <v>-15.01224817734225</v>
       </c>
       <c r="F67" t="n">
-        <v>1.700665348986764</v>
+        <v>1.702625840740397</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.206398791977786</v>
+        <v>-6.174092234601211</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.413679163333799</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.12687094333707</v>
+        <v>-15.12168370705127</v>
       </c>
       <c r="F68" t="n">
-        <v>1.669033474557824</v>
+        <v>1.670417063501161</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.330403562150217</v>
+        <v>-6.297158315455195</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.470044195274521</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.0317602037481</v>
+        <v>-15.02600095365888</v>
       </c>
       <c r="F69" t="n">
-        <v>1.655891824099557</v>
+        <v>1.660076813977636</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.115096588738149</v>
+        <v>-6.075705860411415</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.509865647519455</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.06506411852553</v>
+        <v>-15.05678214089297</v>
       </c>
       <c r="F70" t="n">
-        <v>1.538824554671278</v>
+        <v>1.540677488273839</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.088588393505736</v>
+        <v>-6.050170577545519</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.52717709453309</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.07649950558724</v>
+        <v>-15.06996779241304</v>
       </c>
       <c r="F71" t="n">
-        <v>1.438687916023126</v>
+        <v>1.441631098157009</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.068279458980571</v>
+        <v>-6.024894412043568</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.506643570872486</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.18834042667479</v>
+        <v>-15.18241983935895</v>
       </c>
       <c r="F72" t="n">
-        <v>1.358366422206581</v>
+        <v>1.360879371736175</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.923599078767957</v>
+        <v>-5.880595374366574</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.439978441878185</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.30508013264298</v>
+        <v>-15.30090003177177</v>
       </c>
       <c r="F73" t="n">
-        <v>1.282298364364251</v>
+        <v>1.284356636255222</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.070714184400295</v>
+        <v>-6.031572795423774</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.328813593019287</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.4438937046153</v>
+        <v>-15.44202121498527</v>
       </c>
       <c r="F74" t="n">
-        <v>1.164399963768597</v>
+        <v>1.168584953646676</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.972660262677449</v>
+        <v>-5.933748657023672</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.166636769592892</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.67649309531564</v>
+        <v>-15.67234232848563</v>
       </c>
       <c r="F75" t="n">
-        <v>1.087803893184641</v>
+        <v>1.085911847527144</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.005265049472905</v>
+        <v>-5.964500510216568</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.951709423327324</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.69570689230262</v>
+        <v>-15.69047076594815</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9036398935148213</v>
+        <v>0.9028332073817803</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.112510304105551</v>
+        <v>-6.070073724500729</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.692532570132906</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.76922777756729</v>
+        <v>-15.7668908322849</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7450551777727011</v>
+        <v>0.7453240731503814</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.028360717912211</v>
+        <v>-5.984203207890235</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.391043778549871</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.92488886720299</v>
+        <v>-15.92227324852919</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7591208505288154</v>
+        <v>0.7608808930009048</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.003617454158754</v>
+        <v>-5.960393744448359</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.049577997308995</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.03520441814806</v>
+        <v>-16.03032518929488</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4814790395635825</v>
+        <v>0.4812492562408374</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.019956515107984</v>
+        <v>-5.976605691219049</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.680233719393843</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.53373644836738</v>
+        <v>-16.53140439209186</v>
       </c>
       <c r="F80" t="n">
-        <v>0.469315190478698</v>
+        <v>0.4692858564374965</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.954404711036388</v>
+        <v>-5.913043712942287</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.290723820611838</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.04398742804669</v>
+        <v>-17.0421980515334</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2946700871787623</v>
+        <v>0.295256768002792</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.028580723221222</v>
+        <v>-5.984716553611261</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.886753242647629</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.46937502653009</v>
+        <v>-17.46819677587517</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01815790620765761</v>
+        <v>-0.01726810695787909</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.065116271537677</v>
+        <v>-6.019237831098548</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.482859831740194</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.97917621757765</v>
+        <v>-17.97770462651071</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02416649564709608</v>
+        <v>-0.02448428109344555</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.089223964398435</v>
+        <v>-6.044851338074315</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.092105995313251</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.76086485850808</v>
+        <v>-18.76041506987632</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1145202315545512</v>
+        <v>-0.1127993011373972</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.083107816807924</v>
+        <v>-6.038471184112991</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.722600311187663</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44606405991308</v>
+        <v>-19.44206485229594</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2803455664665724</v>
+        <v>-0.2806340178717204</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.17141794784501</v>
+        <v>-6.127822673612728</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.388170219951902</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.12116257313103</v>
+        <v>-20.12176880998253</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4106033764217874</v>
+        <v>-0.4077237513771745</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.404907137795133</v>
+        <v>-6.361253195480449</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.101736788453608</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.86933707198876</v>
+        <v>-20.86752325044113</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5052056592965917</v>
+        <v>-0.5041740788476726</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.735795122547937</v>
+        <v>-6.695631931136231</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.868324450725835</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70023845604155</v>
+        <v>-21.69882553305701</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6217351379695094</v>
+        <v>-0.6197648682021427</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.986674509923677</v>
+        <v>-6.945000615390095</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.697359074484038</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.69767408100207</v>
+        <v>-22.69702873209564</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8494455218029401</v>
+        <v>-0.8487757278621727</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.038038416067486</v>
+        <v>-6.994707148206019</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.599090960794924</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.7838598476177</v>
+        <v>-23.78364473131555</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.114869704607753</v>
+        <v>-1.114933261697022</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.423033039816437</v>
+        <v>-7.381799155900876</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.572487039394832</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01744428226394</v>
+        <v>-25.01704827270773</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.07294158171709</v>
+        <v>-1.076099880153117</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.781216349907227</v>
+        <v>-7.740618036884365</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.619484117283073</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.27147454362763</v>
+        <v>-26.26588151977188</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.299473714895594</v>
+        <v>-1.301957330383987</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.094440352849867</v>
+        <v>-8.059356839572885</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.743128015110647</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.55709512286188</v>
+        <v>-27.55421305331384</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.56319652331072</v>
+        <v>-1.566007702259196</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.418786846414738</v>
+        <v>-8.387795431885365</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.93325060580029</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.05229764846705</v>
+        <v>-29.04834488641515</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.834766187747245</v>
+        <v>-1.840686775063079</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.750427738225047</v>
+        <v>-8.720722132501672</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.182235027952066</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.66211805106017</v>
+        <v>-30.65565967298897</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.103113996658473</v>
+        <v>-2.108042115580323</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.065900684326468</v>
+        <v>-9.036815982475192</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.485294854676854</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49501161447345</v>
+        <v>-32.48661474517952</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.140964687822128</v>
+        <v>-2.149002215111336</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.42896322327044</v>
+        <v>-9.400494536284393</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.82191136632383</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.21216038481595</v>
+        <v>-34.20050499244523</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.499480450379868</v>
+        <v>-2.506887295783244</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.831343155438139</v>
+        <v>-9.807831921415145</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.180945779440178</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.19977634854649</v>
+        <v>-36.18687914843157</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.888767622157971</v>
+        <v>-2.894766433583675</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.29723617581393</v>
+        <v>-10.27165200287937</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.539875646402005</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.25724399788808</v>
+        <v>-38.24309032300836</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.155917624386805</v>
+        <v>-3.161129305706936</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.65921335523345</v>
+        <v>-10.63477320990574</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.889201300661981</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.46304900457873</v>
+        <v>-40.45086071045951</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.520045966827763</v>
+        <v>-3.526391897741018</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.81498689202709</v>
+        <v>-10.78651331603418</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.188815927857346</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.37092037730302</v>
+        <v>-42.35826029402114</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.968636791901544</v>
+        <v>-3.972821781779623</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.09740037369444</v>
+        <v>-11.07023216253499</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.456978034559262</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.59677275665145</v>
+        <v>-44.57907699629666</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.194983142819106</v>
+        <v>-4.199441917081732</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.23326098551913</v>
+        <v>-11.20779903775624</v>
       </c>
     </row>
   </sheetData>
